--- a/data/trans_orig/PLURIPATOLOGIA_DISC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA_DISC-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC5B080-BCD0-4369-8F9F-B60441A84DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACC3A8DC-F1C2-45DA-94D0-C985FEB7F8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F737F08E-EFBB-4AF4-BA0E-E7789C2D6830}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD131483-5509-4EDE-BFB0-E97B5020E3CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -158,55 +158,55 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>90,87%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -215,16 +215,16 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,85%</t>
+    <t>0,9%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>0,91%</t>
@@ -233,13 +233,13 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,27%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>99,15%</t>
+    <t>99,1%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -248,16 +248,16 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>98,73%</t>
+    <t>98,77%</t>
   </si>
   <si>
     <t>99,37%</t>
@@ -266,505 +266,505 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,21%</t>
+    <t>1,99%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>0,72%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>97,54%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D96941-B0C0-4A8A-A398-E186758A7898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCE026D-03F3-47F2-B258-8F535FD6123A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1843,7 +1843,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1894,7 +1894,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1927,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FC0736-A066-450A-9A8B-865402C6D04C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B46147B-1626-495F-8677-26CB6BA1D823}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2394,10 +2394,10 @@
         <v>79</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,10 +2412,10 @@
         <v>479036</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2427,13 +2427,13 @@
         <v>450917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M11" s="7">
         <v>843</v>
@@ -2442,13 +2442,13 @@
         <v>929953</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2516,13 @@
         <v>45668</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -2531,13 +2531,13 @@
         <v>154531</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
@@ -2546,13 +2546,13 @@
         <v>200200</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2567,13 @@
         <v>3374114</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>3151</v>
@@ -2582,13 +2582,13 @@
         <v>3399699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>6311</v>
@@ -2597,13 +2597,13 @@
         <v>6773812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,7 +2678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20ABA1B6-AE79-4DF9-875C-93C95D12918C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9375B42B-C5DE-455D-8B61-01816601C60B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2695,7 +2695,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2802,13 +2802,13 @@
         <v>20229</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H4" s="7">
         <v>71</v>
@@ -2817,13 +2817,13 @@
         <v>82491</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
         <v>93</v>
@@ -2832,13 +2832,13 @@
         <v>102720</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2853,13 @@
         <v>734118</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>821</v>
@@ -2868,13 +2868,13 @@
         <v>912169</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>1561</v>
@@ -2883,13 +2883,13 @@
         <v>1646287</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2957,13 @@
         <v>10556</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -2972,13 +2972,13 @@
         <v>39701</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -2987,13 +2987,13 @@
         <v>50257</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3008,13 @@
         <v>2065829</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="H8" s="7">
         <v>1873</v>
@@ -3112,7 +3112,7 @@
         <v>2799</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -3130,10 +3130,10 @@
         <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3142,10 +3142,10 @@
         <v>8883</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>148</v>
@@ -3163,7 +3163,7 @@
         <v>544087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>149</v>
@@ -3184,7 +3184,7 @@
         <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>1019</v>
@@ -3193,13 +3193,13 @@
         <v>1087143</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3267,13 @@
         <v>33584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -3282,13 +3282,13 @@
         <v>128277</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -3297,13 +3297,13 @@
         <v>161860</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3318,13 @@
         <v>3344034</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>3214</v>
@@ -3333,13 +3333,13 @@
         <v>3403823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>6396</v>
@@ -3348,13 +3348,13 @@
         <v>6747858</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,7 +3429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042E2E52-CE6B-45E1-BD00-147BCC2D1DEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A61CC0-8A6A-4C4D-B780-0B081E036760}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3446,7 +3446,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3553,13 +3553,13 @@
         <v>48479</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>250</v>
@@ -3568,13 +3568,13 @@
         <v>147815</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>319</v>
@@ -3583,13 +3583,13 @@
         <v>196294</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3604,13 @@
         <v>493155</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
         <v>1177</v>
@@ -3619,13 +3619,13 @@
         <v>688138</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>1799</v>
@@ -3634,13 +3634,13 @@
         <v>1181292</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3708,13 @@
         <v>48069</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -3723,13 +3723,13 @@
         <v>79615</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>183</v>
@@ -3738,13 +3738,13 @@
         <v>127685</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,28 +3759,28 @@
         <v>2113953</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>2793</v>
       </c>
       <c r="I8" s="7">
-        <v>2169905</v>
+        <v>2169906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>4730</v>
@@ -3789,13 +3789,13 @@
         <v>4283858</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,7 +3822,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3863,13 +3863,13 @@
         <v>3750</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -3878,13 +3878,13 @@
         <v>12327</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3893,13 +3893,13 @@
         <v>16077</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3914,13 @@
         <v>669289</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
         <v>986</v>
@@ -4045,7 +4045,7 @@
         <v>526</v>
       </c>
       <c r="N13" s="7">
-        <v>340056</v>
+        <v>340055</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>230</v>
@@ -4066,7 +4066,7 @@
         <v>3234</v>
       </c>
       <c r="D14" s="7">
-        <v>3276397</v>
+        <v>3276396</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>233</v>
@@ -4117,7 +4117,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4147,7 +4147,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/PLURIPATOLOGIA_DISC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA_DISC-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACC3A8DC-F1C2-45DA-94D0-C985FEB7F8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C292F52E-3915-4BE3-AD7B-3B2480E29843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD131483-5509-4EDE-BFB0-E97B5020E3CE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D33D875-1EB0-4FCB-85B0-CEB5C7F1DCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="238">
   <si>
     <t>Población con cinco o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -158,408 +158,408 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>2,4%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
   </si>
   <si>
     <t>98,01%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
     <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -719,18 +719,12 @@
     <t>2,46%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
     <t>6,31%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
     <t>4,74%</t>
   </si>
   <si>
@@ -743,16 +737,10 @@
     <t>97,03%</t>
   </si>
   <si>
-    <t>96,4%</t>
-  </si>
-  <si>
     <t>97,54%</t>
   </si>
   <si>
     <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
   </si>
   <si>
     <t>94,48%</t>
@@ -1176,7 +1164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCE026D-03F3-47F2-B258-8F535FD6123A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84085C38-6A9F-4FEE-A2E1-1ED93A0747E5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1503,7 +1491,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1554,7 +1542,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1813,7 +1801,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1864,7 +1852,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1927,7 +1915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B46147B-1626-495F-8677-26CB6BA1D823}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D167E7-0368-47D1-B244-C0208E675ABA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2678,7 +2666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9375B42B-C5DE-455D-8B61-01816601C60B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96ACDA9B-9F02-4731-8E7E-74F7C921CD98}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2960,10 +2948,10 @@
         <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -2972,10 +2960,10 @@
         <v>39701</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>131</v>
@@ -3014,7 +3002,7 @@
         <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>1873</v>
@@ -3023,13 +3011,13 @@
         <v>1948599</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="M8" s="7">
         <v>3816</v>
@@ -3145,7 +3133,7 @@
         <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>148</v>
@@ -3199,7 +3187,7 @@
         <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,7 +3417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A61CC0-8A6A-4C4D-B780-0B081E036760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC241B03-2B4F-42AB-A46E-BC7D25CA3AD2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4024,7 +4012,7 @@
         <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>396</v>
@@ -4033,13 +4021,13 @@
         <v>239758</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="M13" s="7">
         <v>526</v>
@@ -4048,13 +4036,13 @@
         <v>340055</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4057,13 @@
         <v>3276396</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>4956</v>
@@ -4084,13 +4072,13 @@
         <v>3559602</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>8190</v>
@@ -4099,13 +4087,13 @@
         <v>6835999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/PLURIPATOLOGIA_DISC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA_DISC-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C292F52E-3915-4BE3-AD7B-3B2480E29843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C626DF1A-669C-4620-BB83-89555F4F6AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D33D875-1EB0-4FCB-85B0-CEB5C7F1DCB9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F9C09D4-BD4F-4786-8911-E4F778B815B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="242">
   <si>
     <t>Población con cinco o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -158,25 +158,25 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,72%</t>
   </si>
   <si>
     <t>7,8%</t>
@@ -185,19 +185,19 @@
     <t>96,48%</t>
   </si>
   <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>90,87%</t>
   </si>
   <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>93,24%</t>
@@ -206,7 +206,7 @@
     <t>92,2%</t>
   </si>
   <si>
-    <t>94,26%</t>
+    <t>94,28%</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -215,31 +215,31 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>0,85%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>99,17%</t>
+    <t>99,15%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -248,31 +248,31 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>1,81%</t>
+    <t>2,21%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,72%</t>
   </si>
   <si>
     <t>3,6%</t>
@@ -281,16 +281,13 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>2,19%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>97,79%</t>
   </si>
   <si>
     <t>98,32%</t>
@@ -299,34 +296,31 @@
     <t>96,4%</t>
   </si>
   <si>
-    <t>99,36%</t>
+    <t>99,28%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>97,81%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>2,87%</t>
@@ -335,31 +329,31 @@
     <t>2,47%</t>
   </si>
   <si>
-    <t>3,27%</t>
+    <t>3,31%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>97,13%</t>
   </si>
   <si>
-    <t>96,73%</t>
+    <t>96,69%</t>
   </si>
   <si>
     <t>97,53%</t>
@@ -374,31 +368,31 @@
     <t>1,72%</t>
   </si>
   <si>
-    <t>3,88%</t>
+    <t>4,18%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>96,12%</t>
+    <t>95,82%</t>
   </si>
   <si>
     <t>98,28%</t>
@@ -407,25 +401,25 @@
     <t>91,71%</t>
   </si>
   <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>0,24%</t>
+    <t>0,22%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -434,16 +428,19 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>2,76%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>99,49%</t>
@@ -452,112 +449,103 @@
     <t>99,05%</t>
   </si>
   <si>
-    <t>99,76%</t>
+    <t>99,78%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>97,24%</t>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>97,79%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>3,0%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>97,0%</t>
   </si>
   <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
@@ -566,61 +554,61 @@
     <t>8,95%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>91,05%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>82,32%</t>
   </si>
   <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>85,75%</t>
   </si>
   <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>1,61%</t>
   </si>
   <si>
     <t>2,86%</t>
@@ -629,130 +617,154 @@
     <t>3,54%</t>
   </si>
   <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84085C38-6A9F-4FEE-A2E1-1ED93A0747E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66A170C-F577-4647-8768-FBE77D5E2D09}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1491,7 +1503,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1542,7 +1554,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1801,7 +1813,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1831,7 +1843,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1852,7 +1864,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1882,7 +1894,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1915,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D167E7-0368-47D1-B244-C0208E675ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940266B0-4C08-4D6F-AC93-575352396ABA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2382,10 +2394,10 @@
         <v>79</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,10 +2412,10 @@
         <v>479036</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2415,13 +2427,13 @@
         <v>450917</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M11" s="7">
         <v>843</v>
@@ -2430,13 +2442,13 @@
         <v>929953</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2516,13 @@
         <v>45668</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -2519,13 +2531,13 @@
         <v>154531</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
@@ -2534,13 +2546,13 @@
         <v>200200</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2567,13 @@
         <v>3374114</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>3151</v>
@@ -2570,13 +2582,13 @@
         <v>3399699</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>6311</v>
@@ -2585,13 +2597,13 @@
         <v>6773812</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,7 +2678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96ACDA9B-9F02-4731-8E7E-74F7C921CD98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E2616F-E229-418A-B579-B92E3283E034}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2683,7 +2695,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2790,13 +2802,13 @@
         <v>20229</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H4" s="7">
         <v>71</v>
@@ -2805,13 +2817,13 @@
         <v>82491</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M4" s="7">
         <v>93</v>
@@ -2820,13 +2832,13 @@
         <v>102720</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2853,13 @@
         <v>734118</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>821</v>
@@ -2856,13 +2868,13 @@
         <v>912169</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>1561</v>
@@ -2871,13 +2883,13 @@
         <v>1646287</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2957,13 @@
         <v>10556</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -2960,13 +2972,13 @@
         <v>39701</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -2975,13 +2987,13 @@
         <v>50257</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +3008,13 @@
         <v>2065829</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>1873</v>
@@ -3011,13 +3023,13 @@
         <v>1948599</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M8" s="7">
         <v>3816</v>
@@ -3100,7 +3112,7 @@
         <v>2799</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -3118,10 +3130,10 @@
         <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3130,10 +3142,10 @@
         <v>8883</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>148</v>
@@ -3151,7 +3163,7 @@
         <v>544087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>149</v>
@@ -3172,7 +3184,7 @@
         <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="M11" s="7">
         <v>1019</v>
@@ -3181,13 +3193,13 @@
         <v>1087143</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3267,13 @@
         <v>33584</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -3270,13 +3282,13 @@
         <v>128277</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -3285,13 +3297,13 @@
         <v>161860</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3318,13 @@
         <v>3344034</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>3214</v>
@@ -3321,13 +3333,13 @@
         <v>3403823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>6396</v>
@@ -3336,13 +3348,13 @@
         <v>6747858</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,7 +3429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC241B03-2B4F-42AB-A46E-BC7D25CA3AD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C56A94-EF3F-4E26-A283-8D388F42F7D9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3434,7 +3446,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3541,13 +3553,13 @@
         <v>48479</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>250</v>
@@ -3556,13 +3568,13 @@
         <v>147815</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>319</v>
@@ -3571,13 +3583,13 @@
         <v>196294</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3604,13 @@
         <v>493155</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>1177</v>
@@ -3607,13 +3619,13 @@
         <v>688138</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>1799</v>
@@ -3622,13 +3634,13 @@
         <v>1181292</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3708,13 @@
         <v>48069</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -3711,13 +3723,13 @@
         <v>79615</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>183</v>
@@ -3726,13 +3738,13 @@
         <v>127685</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,28 +3759,28 @@
         <v>2113953</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>2793</v>
       </c>
       <c r="I8" s="7">
-        <v>2169906</v>
+        <v>2169905</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>4730</v>
@@ -3777,13 +3789,13 @@
         <v>4283858</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,7 +3822,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3851,13 +3863,13 @@
         <v>3750</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -3866,13 +3878,13 @@
         <v>12327</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3881,13 +3893,13 @@
         <v>16077</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3914,13 @@
         <v>669289</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="H11" s="7">
         <v>986</v>
@@ -4012,7 +4024,7 @@
         <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>396</v>
@@ -4021,28 +4033,28 @@
         <v>239758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>526</v>
       </c>
       <c r="N13" s="7">
-        <v>340055</v>
+        <v>340056</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,16 +4066,16 @@
         <v>3234</v>
       </c>
       <c r="D14" s="7">
-        <v>3276396</v>
+        <v>3276397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>4956</v>
@@ -4072,13 +4084,13 @@
         <v>3559602</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>8190</v>
@@ -4087,13 +4099,13 @@
         <v>6835999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,7 +4117,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4135,7 +4147,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
